--- a/mail_merge/Book1.xlsx
+++ b/mail_merge/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mail_merge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L4_OSD\git_user\mail_merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F054497-2F58-4D72-B122-375636357E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5727FE-BEAC-4231-B846-CDFC6C8A5000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5436" yWindow="0" windowWidth="17604" windowHeight="8988" xr2:uid="{30DB1B42-D11B-4E27-BA82-89F4AC2DED25}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>first name</t>
   </si>
@@ -80,6 +80,27 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>dell xps 13</t>
+  </si>
+  <si>
+    <t>vocher</t>
+  </si>
+  <si>
+    <t>dell xps 14</t>
   </si>
 </sst>
 </file>
@@ -115,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603A7386-3546-4994-B555-3C73D06C0038}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +478,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -493,7 +515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -510,7 +532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -527,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -542,6 +564,80 @@
       </c>
       <c r="F5">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1750000</v>
+      </c>
+      <c r="F9">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="str">
+        <f>LOOKUP(F9,A9:A10,B9:B10)</f>
+        <v>dell xps 13</v>
+      </c>
+      <c r="H9">
+        <f>LOOKUP(F9,A9:A10,C9:C10)</f>
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2750000</v>
+      </c>
+      <c r="F10">
+        <v>1002</v>
+      </c>
+      <c r="G10" t="str">
+        <f>LOOKUP(F10,A9:A10,B9:B10)</f>
+        <v>dell xps 14</v>
+      </c>
+      <c r="H10">
+        <f>LOOKUP(F10,A9:A10,C9:C10)</f>
+        <v>2750000</v>
       </c>
     </row>
   </sheetData>
